--- a/RPA_Acme_Enterprise_Framework/Data/Config.xlsx
+++ b/RPA_Acme_Enterprise_Framework/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA Workspace\RPA_Projects_UIPath\RPA_Acme_Enterprise_Framework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D17721-B34B-4425-B584-0BC9A9806E9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BB6374-B1B5-4320-8882-9D980C7DF544}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11070" yWindow="2175" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -177,6 +177,9 @@
     <t>ACME Queue
 ACME Queue
 ACME Queue</t>
+  </si>
+  <si>
+    <t>ACME_Credentials</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2828,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2882,7 +2885,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
